--- a/capiq_data/in_process_data/IQ1462309.xlsx
+++ b/capiq_data/in_process_data/IQ1462309.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ED949E-54CD-476A-B175-3BC1EF4EE51C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CCCF7E-9163-4767-BFDF-28A153CA0636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"fe28c638-7a6d-4cb9-bb4d-f7600a717ea4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"529d9faa-164d-4b14-8272-dcd6ed67145c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,76 +853,76 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>60.868000000000002</v>
+        <v>-53.963999999999999</v>
       </c>
       <c r="D2">
-        <v>335.12</v>
+        <v>85.495999999999995</v>
       </c>
       <c r="E2">
-        <v>200.905</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>148.53800000000001</v>
+        <v>-7.02</v>
       </c>
       <c r="G2">
-        <v>820.60299999999995</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1614.076</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>120.535</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>25.071000000000002</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>157.066</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>202.66900000000001</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>25.071000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-3.2029999999999998</v>
+        <v>5.5330000000000004</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1411.4069999999999</v>
+        <v>466.416</v>
       </c>
       <c r="U2">
-        <v>450.05399999999997</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>64.822000000000003</v>
+        <v>-31.672000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-31.055</v>
+        <v>55.405000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +931,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>60.868000000000002</v>
+        <v>-53.963999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40634</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>49.96</v>
+        <v>-100.16</v>
       </c>
       <c r="D3">
-        <v>325.411</v>
+        <v>57.503</v>
       </c>
       <c r="E3">
-        <v>183.352</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>140.98099999999999</v>
+        <v>-46.426000000000002</v>
       </c>
       <c r="G3">
-        <v>872.44399999999996</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1678.797</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>111.949</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>25.405000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>176.44399999999999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>202.405</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>25.405000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>53.747</v>
+        <v>-4.5309999999999997</v>
       </c>
       <c r="R3">
-        <v>40634</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1476.3920000000001</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>503.80099999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>92.222999999999999</v>
+        <v>-32.893999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-5.71</v>
+        <v>50.365000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,36 +1014,36 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>49.96</v>
+        <v>-100.16</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40725</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>51.548000000000002</v>
+        <v>-142.42500000000001</v>
       </c>
       <c r="D4">
-        <v>356.07499999999999</v>
+        <v>51.045000000000002</v>
       </c>
       <c r="E4">
-        <v>186.12899999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>156.22499999999999</v>
+        <v>-12.414</v>
       </c>
       <c r="G4">
-        <v>712.13300000000004</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1805.5989999999999</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>116.648</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>244.34899999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>273.42500000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>25.744</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-194.15600000000001</v>
+        <v>-1.0960000000000001</v>
       </c>
       <c r="R4">
-        <v>40725</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1532.174</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>309.64499999999998</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>85.974000000000004</v>
+        <v>-1.1950000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-14.666</v>
+        <v>10.609</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,36 +1097,36 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>51.548000000000002</v>
+        <v>-142.42500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>64.209000000000003</v>
+        <v>-22.375</v>
       </c>
       <c r="D5">
-        <v>402.31599999999997</v>
+        <v>66.406999999999996</v>
       </c>
       <c r="E5">
-        <v>177.94</v>
+        <v>40.753999999999998</v>
       </c>
       <c r="F5">
-        <v>174.56</v>
+        <v>14.808</v>
       </c>
       <c r="G5">
-        <v>816.33399999999995</v>
+        <v>83.36</v>
       </c>
       <c r="H5">
-        <v>1890.3889999999999</v>
+        <v>314.28699999999998</v>
       </c>
       <c r="I5">
-        <v>115.29</v>
+        <v>2.653</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>247.096</v>
+        <v>22.82</v>
       </c>
       <c r="O5">
-        <v>281.29399999999998</v>
+        <v>26.626000000000001</v>
       </c>
       <c r="P5">
-        <v>26.088999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>100.44199999999999</v>
+        <v>-2.0870000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1609.095</v>
+        <v>287.661</v>
       </c>
       <c r="U5">
-        <v>410.08699999999999</v>
+        <v>1.998</v>
       </c>
       <c r="V5">
-        <v>122.79900000000001</v>
+        <v>-23.645</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-7.6130000000000004</v>
+        <v>21.963999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,36 +1180,36 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>64.209000000000003</v>
+        <v>-22.375</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>57.125999999999998</v>
+        <v>-34.296999999999997</v>
       </c>
       <c r="D6">
-        <v>393.74</v>
+        <v>93.76</v>
       </c>
       <c r="E6">
-        <v>199.01</v>
+        <v>43.564999999999998</v>
       </c>
       <c r="F6">
-        <v>171.85</v>
+        <v>15.954000000000001</v>
       </c>
       <c r="G6">
-        <v>856.34199999999998</v>
+        <v>93.971999999999994</v>
       </c>
       <c r="H6">
-        <v>1914.633</v>
+        <v>311.084</v>
       </c>
       <c r="I6">
-        <v>96.03</v>
+        <v>1.121</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1101,40 +1221,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-14.926</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>212.50200000000001</v>
+        <v>33.289000000000001</v>
       </c>
       <c r="O6">
-        <v>250.96799999999999</v>
+        <v>37.061</v>
       </c>
       <c r="P6">
-        <v>17.123000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>35.548999999999999</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="R6">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1663.665</v>
+        <v>274.02300000000002</v>
       </c>
       <c r="U6">
-        <v>445.63600000000002</v>
+        <v>4.7469999999999999</v>
       </c>
       <c r="V6">
-        <v>77.231999999999999</v>
+        <v>-16.32</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-35.259</v>
+        <v>20.64</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,36 +1263,36 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>57.125999999999998</v>
+        <v>-34.296999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40998</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>34.073999999999998</v>
+        <v>-18.338999999999999</v>
       </c>
       <c r="D7">
-        <v>364.7</v>
+        <v>100.35599999999999</v>
       </c>
       <c r="E7">
-        <v>211.488</v>
+        <v>35.347999999999999</v>
       </c>
       <c r="F7">
-        <v>152.30000000000001</v>
+        <v>29.433</v>
       </c>
       <c r="G7">
-        <v>752.33199999999999</v>
+        <v>79.927999999999997</v>
       </c>
       <c r="H7">
-        <v>2007.326</v>
+        <v>290.85000000000002</v>
       </c>
       <c r="I7">
-        <v>136.67699999999999</v>
+        <v>4.2359999999999998</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>242.642</v>
+        <v>39.448999999999998</v>
       </c>
       <c r="O7">
-        <v>287.08199999999999</v>
+        <v>43.304000000000002</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-138.94900000000001</v>
+        <v>0.217</v>
       </c>
       <c r="R7">
-        <v>40998</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1720.2439999999999</v>
+        <v>247.54599999999999</v>
       </c>
       <c r="U7">
-        <v>306.47399999999999</v>
+        <v>4.9640000000000004</v>
       </c>
       <c r="V7">
-        <v>116.968</v>
+        <v>18.957999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-21.440999999999999</v>
+        <v>-8.0169999999999995</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>34</v>
+        <v>-18.338999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41089</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>49.3</v>
+        <v>-181.94499999999999</v>
       </c>
       <c r="D8">
-        <v>389</v>
+        <v>112.98</v>
       </c>
       <c r="E8">
-        <v>246.89400000000001</v>
+        <v>24.344000000000001</v>
       </c>
       <c r="F8">
-        <v>165.3</v>
+        <v>20.062999999999999</v>
       </c>
       <c r="G8">
-        <v>829.49</v>
+        <v>184.87700000000001</v>
       </c>
       <c r="H8">
-        <v>2089.893</v>
+        <v>1305.991</v>
       </c>
       <c r="I8">
-        <v>135.59700000000001</v>
+        <v>16.573</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>239.571</v>
+        <v>286.483</v>
       </c>
       <c r="O8">
-        <v>288.22800000000001</v>
+        <v>291.02800000000002</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>150.202</v>
       </c>
       <c r="Q8">
-        <v>20.5</v>
+        <v>85.733999999999995</v>
       </c>
       <c r="R8">
-        <v>41089</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1801.665</v>
+        <v>1014.963</v>
       </c>
       <c r="U8">
-        <v>327.09800000000001</v>
+        <v>55.276000000000003</v>
       </c>
       <c r="V8">
-        <v>40.700000000000003</v>
+        <v>-42.37</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>11</v>
+        <v>34.710999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>49.3</v>
+        <v>-181.94499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>61.5</v>
+        <v>-1.4830000000000001</v>
       </c>
       <c r="D9">
-        <v>421.1</v>
+        <v>150.673</v>
       </c>
       <c r="E9">
-        <v>297.60000000000002</v>
+        <v>94.424999999999997</v>
       </c>
       <c r="F9">
-        <v>177.7</v>
+        <v>76.710999999999999</v>
       </c>
       <c r="G9">
-        <v>883.3</v>
+        <v>227.39599999999999</v>
       </c>
       <c r="H9">
-        <v>2136.6</v>
+        <v>1346.912</v>
       </c>
       <c r="I9">
-        <v>140.6</v>
+        <v>45.35</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>180.03899999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>182.7</v>
+        <v>147.62700000000001</v>
       </c>
       <c r="O9">
-        <v>231.1</v>
+        <v>331.93599999999998</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>180.16800000000001</v>
       </c>
       <c r="Q9">
-        <v>-20.8</v>
+        <v>-37.340000000000003</v>
       </c>
       <c r="R9">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="T9">
-        <v>1905.5</v>
+        <v>1014.976</v>
       </c>
       <c r="U9">
-        <v>307.10000000000002</v>
+        <v>53.357999999999997</v>
       </c>
       <c r="V9">
-        <v>50.3</v>
+        <v>-59.362000000000002</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-40.4</v>
+        <v>30.007999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>35.421999999999997</v>
       </c>
       <c r="AA9">
-        <v>61.5</v>
+        <v>-1.4830000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41271</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>66.5</v>
+        <v>-396.34800000000001</v>
       </c>
       <c r="D10">
-        <v>453.7</v>
+        <v>160.19399999999999</v>
       </c>
       <c r="E10">
-        <v>252.149</v>
+        <v>109.907</v>
       </c>
       <c r="F10">
-        <v>192.6</v>
+        <v>65.12</v>
       </c>
       <c r="G10">
-        <v>899.553</v>
+        <v>267.89699999999999</v>
       </c>
       <c r="H10">
-        <v>2151.107</v>
+        <v>1401.643</v>
       </c>
       <c r="I10">
-        <v>111.36199999999999</v>
+        <v>45.726999999999997</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>275.005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-135.03399999999999</v>
       </c>
       <c r="N10">
-        <v>155.68799999999999</v>
+        <v>103.961</v>
       </c>
       <c r="O10">
-        <v>207.13800000000001</v>
+        <v>383.30599999999998</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>275.13400000000001</v>
       </c>
       <c r="Q10">
-        <v>71.2</v>
+        <v>40.905000000000001</v>
       </c>
       <c r="R10">
-        <v>41271</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1943.9690000000001</v>
+        <v>1018.337</v>
       </c>
       <c r="U10">
-        <v>377.53800000000001</v>
+        <v>94.263000000000005</v>
       </c>
       <c r="V10">
-        <v>147.6</v>
+        <v>-31.053000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-50.8</v>
+        <v>85.89</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>66.5</v>
+        <v>-396.34800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>61.7</v>
+        <v>-5.9550000000000001</v>
       </c>
       <c r="D11">
-        <v>425.2</v>
+        <v>157.364</v>
       </c>
       <c r="E11">
-        <v>234.6</v>
+        <v>122.127</v>
       </c>
       <c r="F11">
-        <v>176.7</v>
+        <v>63.518999999999998</v>
       </c>
       <c r="G11">
-        <v>963.7</v>
+        <v>281.59699999999998</v>
       </c>
       <c r="H11">
-        <v>2216.9</v>
+        <v>1421.0530000000001</v>
       </c>
       <c r="I11">
-        <v>111.5</v>
+        <v>69.331999999999994</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>162.6</v>
+        <v>128.392</v>
       </c>
       <c r="O11">
-        <v>216.9</v>
+        <v>407.71199999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>275.09899999999999</v>
       </c>
       <c r="Q11">
-        <v>80.5</v>
+        <v>-9.9359999999999999</v>
       </c>
       <c r="R11">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2000</v>
+        <v>1013.341</v>
       </c>
       <c r="U11">
-        <v>458.8</v>
+        <v>84.326999999999998</v>
       </c>
       <c r="V11">
-        <v>130.30000000000001</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-24.2</v>
+        <v>0.108</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>61.7</v>
+        <v>-5.9550000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>65.7</v>
+        <v>-6.1859999999999999</v>
       </c>
       <c r="D12">
-        <v>436.1</v>
+        <v>150.19900000000001</v>
       </c>
       <c r="E12">
-        <v>283.89999999999998</v>
+        <v>135.941</v>
       </c>
       <c r="F12">
-        <v>188.2</v>
+        <v>56.078000000000003</v>
       </c>
       <c r="G12">
-        <v>959.6</v>
+        <v>275.61200000000002</v>
       </c>
       <c r="H12">
-        <v>2217.9</v>
+        <v>1410.623</v>
       </c>
       <c r="I12">
-        <v>115.2</v>
+        <v>76.472999999999999</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>159</v>
+        <v>121.58799999999999</v>
       </c>
       <c r="O12">
-        <v>217.8</v>
+        <v>400.74599999999998</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>275.06400000000002</v>
       </c>
       <c r="Q12">
-        <v>-58.5</v>
+        <v>-19.103999999999999</v>
       </c>
       <c r="R12">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2000.1</v>
+        <v>1009.877</v>
       </c>
       <c r="U12">
-        <v>400.3</v>
+        <v>65.222999999999999</v>
       </c>
       <c r="V12">
-        <v>64.3</v>
+        <v>-14.779</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-89.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>65.7</v>
+        <v>-6.1859999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41544</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>84.2</v>
+        <v>-42.927</v>
       </c>
       <c r="D13">
-        <v>477</v>
+        <v>150.03200000000001</v>
       </c>
       <c r="E13">
-        <v>292.7</v>
+        <v>144.267</v>
       </c>
       <c r="F13">
-        <v>209.1</v>
+        <v>62.131999999999998</v>
       </c>
       <c r="G13">
-        <v>1073.3</v>
+        <v>386.09500000000003</v>
       </c>
       <c r="H13">
-        <v>2333.1</v>
+        <v>1090.6679999999999</v>
       </c>
       <c r="I13">
-        <v>126.5</v>
+        <v>50.369</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>41.652000000000001</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>179.7</v>
+        <v>136.816</v>
       </c>
       <c r="O13">
-        <v>232</v>
+        <v>417.49299999999999</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>316.68099999999998</v>
       </c>
       <c r="Q13">
-        <v>110.8</v>
+        <v>96.283000000000001</v>
       </c>
       <c r="R13">
-        <v>41544</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>4750</v>
+        <v>3800</v>
       </c>
       <c r="T13">
-        <v>2101.1</v>
+        <v>673.17499999999995</v>
       </c>
       <c r="U13">
-        <v>511.1</v>
+        <v>161.506</v>
       </c>
       <c r="V13">
-        <v>157.5</v>
+        <v>-28.821999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-8.3000000000000007</v>
+        <v>138.41399999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-3.988</v>
       </c>
       <c r="AA13">
-        <v>84.2</v>
+        <v>-42.927</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41635</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>94.5</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="D14">
-        <v>505.2</v>
+        <v>175.108</v>
       </c>
       <c r="E14">
-        <v>267.10000000000002</v>
+        <v>150.84200000000001</v>
       </c>
       <c r="F14">
-        <v>222</v>
+        <v>69.567999999999998</v>
       </c>
       <c r="G14">
-        <v>1180.0999999999999</v>
+        <v>406.83600000000001</v>
       </c>
       <c r="H14">
-        <v>2435.4</v>
+        <v>1115.722</v>
       </c>
       <c r="I14">
-        <v>107.3</v>
+        <v>64.393000000000001</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>39.005000000000003</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-2.6760000000000002</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>165.8</v>
+        <v>155.601</v>
       </c>
       <c r="O14">
-        <v>223.2</v>
+        <v>436.49200000000002</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>314.005</v>
       </c>
       <c r="Q14">
-        <v>137.5</v>
+        <v>14.744999999999999</v>
       </c>
       <c r="R14">
-        <v>41635</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2212.1999999999998</v>
+        <v>679.23</v>
       </c>
       <c r="U14">
-        <v>648.6</v>
+        <v>176.251</v>
       </c>
       <c r="V14">
-        <v>158.80000000000001</v>
+        <v>26.125</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-5</v>
+        <v>-1.518</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>3.988</v>
       </c>
       <c r="AA14">
-        <v>94.5</v>
+        <v>4.1719999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41726</v>
+        <v>38079</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>76.900000000000006</v>
+        <v>-9.4209999999999994</v>
       </c>
       <c r="D15">
-        <v>481</v>
+        <v>183.471</v>
       </c>
       <c r="E15">
-        <v>216.3</v>
+        <v>142.708</v>
       </c>
       <c r="F15">
-        <v>212.4</v>
+        <v>72.203999999999994</v>
       </c>
       <c r="G15">
-        <v>1268.9000000000001</v>
+        <v>423.995</v>
       </c>
       <c r="H15">
-        <v>2534.6</v>
+        <v>1118.1949999999999</v>
       </c>
       <c r="I15">
-        <v>125.8</v>
+        <v>70.031999999999996</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>45.054000000000002</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>182.8</v>
+        <v>162.79499999999999</v>
       </c>
       <c r="O15">
-        <v>243.2</v>
+        <v>443.55099999999999</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>320.05399999999997</v>
       </c>
       <c r="Q15">
-        <v>149.19999999999999</v>
+        <v>-71.977999999999994</v>
       </c>
       <c r="R15">
-        <v>41726</v>
+        <v>38079</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2291.4</v>
+        <v>674.64400000000001</v>
       </c>
       <c r="U15">
-        <v>797.8</v>
+        <v>191.773</v>
       </c>
       <c r="V15">
-        <v>214.2</v>
+        <v>18.98</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-23.1</v>
+        <v>7.4020000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-87.5</v>
       </c>
       <c r="AA15">
-        <v>76.900000000000006</v>
+        <v>-9.4209999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41817</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>111.4</v>
+        <v>13.03</v>
       </c>
       <c r="D16">
-        <v>587</v>
+        <v>207.37700000000001</v>
       </c>
       <c r="E16">
-        <v>251.4</v>
+        <v>156.53</v>
       </c>
       <c r="F16">
-        <v>264.2</v>
+        <v>83.784000000000006</v>
       </c>
       <c r="G16">
-        <v>1387.3</v>
+        <v>455.83499999999998</v>
       </c>
       <c r="H16">
-        <v>2688.9</v>
+        <v>1161.6690000000001</v>
       </c>
       <c r="I16">
-        <v>164</v>
+        <v>88.521000000000001</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>234.8</v>
+        <v>192.21799999999999</v>
       </c>
       <c r="O16">
-        <v>299.89999999999998</v>
+        <v>428.17899999999997</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q16">
-        <v>95.5</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="R16">
-        <v>41817</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2389</v>
+        <v>733.49</v>
       </c>
       <c r="U16">
-        <v>893.3</v>
+        <v>188.18700000000001</v>
       </c>
       <c r="V16">
-        <v>199</v>
+        <v>18.401</v>
       </c>
       <c r="W16">
-        <v>-20.9</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-36</v>
+        <v>4.6639999999999997</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AA16">
-        <v>111.4</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41915</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>174.9</v>
+        <v>14.631</v>
       </c>
       <c r="D17">
-        <v>718.3</v>
+        <v>218.06700000000001</v>
       </c>
       <c r="E17">
-        <v>317.60000000000002</v>
+        <v>157.77199999999999</v>
       </c>
       <c r="F17">
-        <v>324.10000000000002</v>
+        <v>87.66</v>
       </c>
       <c r="G17">
-        <v>1429.2</v>
+        <v>463.86399999999998</v>
       </c>
       <c r="H17">
-        <v>2973.8</v>
+        <v>1168.806</v>
       </c>
       <c r="I17">
-        <v>200.6</v>
+        <v>73.405000000000001</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>297.60000000000002</v>
+        <v>181.251</v>
       </c>
       <c r="O17">
-        <v>441.4</v>
+        <v>417.18299999999999</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q17">
-        <v>-87.5</v>
+        <v>12.218</v>
       </c>
       <c r="R17">
-        <v>41915</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>5550</v>
+        <v>4200</v>
       </c>
       <c r="T17">
-        <v>2532.4</v>
+        <v>751.62300000000005</v>
       </c>
       <c r="U17">
-        <v>805.8</v>
+        <v>123.505</v>
       </c>
       <c r="V17">
-        <v>200.4</v>
+        <v>28.407</v>
       </c>
       <c r="W17">
-        <v>-20.5</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-56.5</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.13400000000000001</v>
       </c>
       <c r="AA17">
-        <v>174.9</v>
+        <v>14.631</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42006</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>195.2</v>
+        <v>13.917</v>
       </c>
       <c r="D18">
-        <v>805.5</v>
+        <v>220.16</v>
       </c>
       <c r="E18">
-        <v>242.3</v>
+        <v>170.86</v>
       </c>
       <c r="F18">
-        <v>373</v>
+        <v>88.019000000000005</v>
       </c>
       <c r="G18">
-        <v>1590.4</v>
+        <v>476.70400000000001</v>
       </c>
       <c r="H18">
-        <v>3191</v>
+        <v>1175.3510000000001</v>
       </c>
       <c r="I18">
-        <v>211</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>332.9</v>
+        <v>168.02500000000001</v>
       </c>
       <c r="O18">
-        <v>480.9</v>
+        <v>404.48599999999999</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q18">
-        <v>244.1</v>
+        <v>-1.423</v>
       </c>
       <c r="R18">
-        <v>42006</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2710.1</v>
+        <v>770.86500000000001</v>
       </c>
       <c r="U18">
-        <v>1049.9000000000001</v>
+        <v>202.203</v>
       </c>
       <c r="V18">
-        <v>383.2</v>
+        <v>7.1260000000000003</v>
       </c>
       <c r="W18">
-        <v>-24.6</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-51.9</v>
+        <v>4.056</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-2.5649999999999999</v>
       </c>
       <c r="AA18">
-        <v>195.2</v>
+        <v>13.917</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42097</v>
+        <v>38443</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>166.5</v>
+        <v>1.244</v>
       </c>
       <c r="D19">
-        <v>762.1</v>
+        <v>190.505</v>
       </c>
       <c r="E19">
-        <v>277.10000000000002</v>
+        <v>166.358</v>
       </c>
       <c r="F19">
-        <v>352.2</v>
+        <v>72.599000000000004</v>
       </c>
       <c r="G19">
-        <v>1678.9</v>
+        <v>477.64699999999999</v>
       </c>
       <c r="H19">
-        <v>3313.2</v>
+        <v>1170.9939999999999</v>
       </c>
       <c r="I19">
-        <v>231</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>49.218000000000004</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>298.60000000000002</v>
+        <v>158.584</v>
       </c>
       <c r="O19">
-        <v>449.7</v>
+        <v>395.12599999999998</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>279.21800000000002</v>
       </c>
       <c r="Q19">
-        <v>4.3</v>
+        <v>-16.497</v>
       </c>
       <c r="R19">
-        <v>42097</v>
+        <v>38443</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2863.5</v>
+        <v>775.86800000000005</v>
       </c>
       <c r="U19">
-        <v>1054.2</v>
+        <v>105.58499999999999</v>
       </c>
       <c r="V19">
-        <v>155</v>
+        <v>11.183</v>
       </c>
       <c r="W19">
-        <v>-24.7</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-48.6</v>
+        <v>-0.54400000000000004</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-20.155999999999999</v>
       </c>
       <c r="AA19">
-        <v>166.5</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42188</v>
+        <v>38534</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>207.4</v>
+        <v>7.3890000000000002</v>
       </c>
       <c r="D20">
-        <v>810</v>
+        <v>191.53200000000001</v>
       </c>
       <c r="E20">
-        <v>381.7</v>
+        <v>162.006</v>
       </c>
       <c r="F20">
-        <v>393.1</v>
+        <v>77.873999999999995</v>
       </c>
       <c r="G20">
-        <v>1818.1</v>
+        <v>487.47699999999998</v>
       </c>
       <c r="H20">
-        <v>3518.3</v>
+        <v>1181.0429999999999</v>
       </c>
       <c r="I20">
-        <v>228.2</v>
+        <v>62.122</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>319</v>
+        <v>156.63200000000001</v>
       </c>
       <c r="O20">
-        <v>476.3</v>
+        <v>393.31099999999998</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q20">
-        <v>51.8</v>
+        <v>11.355</v>
       </c>
       <c r="R20">
-        <v>42188</v>
+        <v>38534</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3042</v>
+        <v>787.73199999999997</v>
       </c>
       <c r="U20">
-        <v>1106</v>
+        <v>116.94</v>
       </c>
       <c r="V20">
-        <v>221.9</v>
+        <v>25.465</v>
       </c>
       <c r="W20">
-        <v>-24.5</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-55.9</v>
+        <v>1.278</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-4.7690000000000001</v>
       </c>
       <c r="AA20">
-        <v>207.4</v>
+        <v>7.3890000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42279</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>229.2</v>
+        <v>3.0609999999999999</v>
       </c>
       <c r="D21">
-        <v>880.8</v>
+        <v>190.17400000000001</v>
       </c>
       <c r="E21">
-        <v>538</v>
+        <v>171.45400000000001</v>
       </c>
       <c r="F21">
-        <v>436.2</v>
+        <v>69.28</v>
       </c>
       <c r="G21">
-        <v>1914.7</v>
+        <v>495.98200000000003</v>
       </c>
       <c r="H21">
-        <v>3719.4</v>
+        <v>1187.8430000000001</v>
       </c>
       <c r="I21">
-        <v>291.10000000000002</v>
+        <v>72.275999999999996</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>463.9</v>
+        <v>158.23500000000001</v>
       </c>
       <c r="O21">
-        <v>560.20000000000005</v>
+        <v>395.279</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q21">
-        <v>-62.4</v>
+        <v>-0.41799999999999998</v>
       </c>
       <c r="R21">
-        <v>42279</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>6700</v>
+        <v>4000</v>
       </c>
       <c r="T21">
-        <v>3159.2</v>
+        <v>792.56399999999996</v>
       </c>
       <c r="U21">
-        <v>1043.5999999999999</v>
+        <v>116.52200000000001</v>
       </c>
       <c r="V21">
-        <v>232.7</v>
+        <v>10.423</v>
       </c>
       <c r="W21">
-        <v>-49.3</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-143.9</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-0.79900000000000004</v>
       </c>
       <c r="AA21">
-        <v>229.2</v>
+        <v>3.0609999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42370</v>
+        <v>38716</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>355.3</v>
+        <v>4.2869999999999999</v>
       </c>
       <c r="D22">
-        <v>926.8</v>
+        <v>198.32499999999999</v>
       </c>
       <c r="E22">
-        <v>527.6</v>
+        <v>171.065</v>
       </c>
       <c r="F22">
-        <v>472.1</v>
+        <v>74.722999999999999</v>
       </c>
       <c r="G22">
-        <v>2114.6999999999998</v>
+        <v>505.053</v>
       </c>
       <c r="H22">
-        <v>3930.5</v>
+        <v>1199.94</v>
       </c>
       <c r="I22">
-        <v>191.8</v>
+        <v>72.296000000000006</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>367.9</v>
+        <v>161.71199999999999</v>
       </c>
       <c r="O22">
-        <v>447.9</v>
+        <v>398.827</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q22">
-        <v>189.6</v>
+        <v>6.97</v>
       </c>
       <c r="R22">
-        <v>42370</v>
+        <v>38716</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>3482.6</v>
+        <v>801.11300000000006</v>
       </c>
       <c r="U22">
-        <v>1233.2</v>
+        <v>123.492</v>
       </c>
       <c r="V22">
-        <v>345.3</v>
+        <v>22</v>
       </c>
       <c r="W22">
-        <v>-50.2</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-76.2</v>
+        <v>0.248</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1.645</v>
       </c>
       <c r="AA22">
-        <v>355.3</v>
+        <v>4.2869999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42461</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>208.1</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D23">
-        <v>775.1</v>
+        <v>185.23400000000001</v>
       </c>
       <c r="E23">
-        <v>538.5</v>
+        <v>172.792</v>
       </c>
       <c r="F23">
-        <v>390.4</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="G23">
-        <v>2127</v>
+        <v>461.12299999999999</v>
       </c>
       <c r="H23">
-        <v>3958.2</v>
+        <v>1158.396</v>
       </c>
       <c r="I23">
-        <v>180.7</v>
+        <v>74.731999999999999</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>179.33500000000001</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>324.7</v>
+        <v>161.416</v>
       </c>
       <c r="O23">
-        <v>414.9</v>
+        <v>348.03</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>229.33500000000001</v>
       </c>
       <c r="Q23">
-        <v>-55.7</v>
+        <v>-6.7380000000000004</v>
       </c>
       <c r="R23">
-        <v>42461</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3543.3</v>
+        <v>810.36599999999999</v>
       </c>
       <c r="U23">
-        <v>1177.5</v>
+        <v>116.754</v>
       </c>
       <c r="V23">
-        <v>154.5</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="W23">
-        <v>-49.2</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-172.8</v>
+        <v>-49.874000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>54.713999999999999</v>
       </c>
       <c r="AA23">
-        <v>208.1</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42552</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>185</v>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D24">
-        <v>751.7</v>
+        <v>197.05799999999999</v>
       </c>
       <c r="E24">
-        <v>570</v>
+        <v>204.25700000000001</v>
       </c>
       <c r="F24">
-        <v>378.3</v>
+        <v>73.346999999999994</v>
       </c>
       <c r="G24">
-        <v>2078.1</v>
+        <v>470.69299999999998</v>
       </c>
       <c r="H24">
-        <v>3955.7</v>
+        <v>1166.7619999999999</v>
       </c>
       <c r="I24">
-        <v>181.7</v>
+        <v>75.804000000000002</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>179.33500000000001</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>347</v>
+        <v>161.68100000000001</v>
       </c>
       <c r="O24">
-        <v>441.4</v>
+        <v>348.23</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>229.33500000000001</v>
       </c>
       <c r="Q24">
-        <v>-203.8</v>
+        <v>-24.512</v>
       </c>
       <c r="R24">
-        <v>42552</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3514.3</v>
+        <v>818.53200000000004</v>
       </c>
       <c r="U24">
-        <v>973.7</v>
+        <v>92.242000000000004</v>
       </c>
       <c r="V24">
-        <v>140.9</v>
+        <v>-18.341000000000001</v>
       </c>
       <c r="W24">
-        <v>-49.4</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-232.5</v>
+        <v>0.221</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AA24">
-        <v>185</v>
+        <v>3.0049999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>246.8</v>
+        <v>-96.37</v>
       </c>
       <c r="D25">
-        <v>835.4</v>
+        <v>193.13300000000001</v>
       </c>
       <c r="E25">
-        <v>416.6</v>
+        <v>158.798</v>
       </c>
       <c r="F25">
-        <v>424.4</v>
+        <v>68.558999999999997</v>
       </c>
       <c r="G25">
-        <v>2002.1</v>
+        <v>420.84300000000002</v>
       </c>
       <c r="H25">
-        <v>3855.4</v>
+        <v>1090.4960000000001</v>
       </c>
       <c r="I25">
-        <v>110.4</v>
+        <v>73.070999999999998</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>179.33500000000001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>210.2</v>
+        <v>175.62</v>
       </c>
       <c r="O25">
-        <v>314</v>
+        <v>361.40300000000002</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>229.33500000000001</v>
       </c>
       <c r="Q25">
-        <v>110.1</v>
+        <v>44.506999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="S25">
-        <v>7300</v>
+        <v>4000</v>
       </c>
       <c r="T25">
-        <v>3541.4</v>
+        <v>729.09299999999996</v>
       </c>
       <c r="U25">
-        <v>1083.8</v>
+        <v>136.749</v>
       </c>
       <c r="V25">
-        <v>455</v>
+        <v>22.718</v>
       </c>
       <c r="W25">
-        <v>-52.2</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-323.10000000000002</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>27.856000000000002</v>
       </c>
       <c r="AA25">
-        <v>246.8</v>
+        <v>-96.37</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>257.8</v>
+        <v>12.037000000000001</v>
       </c>
       <c r="D26">
-        <v>914.3</v>
+        <v>196.03</v>
       </c>
       <c r="E26">
-        <v>368.4</v>
+        <v>163.262</v>
       </c>
       <c r="F26">
-        <v>463.9</v>
+        <v>75.316000000000003</v>
       </c>
       <c r="G26">
-        <v>2198.5</v>
+        <v>426.08499999999998</v>
       </c>
       <c r="H26">
-        <v>4065.7</v>
+        <v>1092.413</v>
       </c>
       <c r="I26">
-        <v>161.5</v>
+        <v>56.067999999999998</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>303.39999999999998</v>
+        <v>338.88499999999999</v>
       </c>
       <c r="O26">
-        <v>405.4</v>
+        <v>345.48399999999998</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>229.33500000000001</v>
       </c>
       <c r="Q26">
-        <v>266.7</v>
+        <v>-22.817</v>
       </c>
       <c r="R26">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>3660.3</v>
+        <v>746.92899999999997</v>
       </c>
       <c r="U26">
-        <v>1350.5</v>
+        <v>113.932</v>
       </c>
       <c r="V26">
-        <v>495.9</v>
+        <v>15.76</v>
       </c>
       <c r="W26">
-        <v>-52.2</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-168.6</v>
+        <v>2.657</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>3.2</v>
+        <v>-34.950000000000003</v>
       </c>
       <c r="AA26">
-        <v>257.8</v>
+        <v>12.037000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>224.9</v>
+        <v>12.196999999999999</v>
       </c>
       <c r="D27">
-        <v>851.7</v>
+        <v>180.21</v>
       </c>
       <c r="E27">
-        <v>368.8</v>
+        <v>161.19200000000001</v>
       </c>
       <c r="F27">
-        <v>425.4</v>
+        <v>68.701999999999998</v>
       </c>
       <c r="G27">
-        <v>2308.1</v>
+        <v>468.18099999999998</v>
       </c>
       <c r="H27">
-        <v>4166.8</v>
+        <v>1140.8150000000001</v>
       </c>
       <c r="I27">
-        <v>163.80000000000001</v>
+        <v>60.698</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>40.070999999999998</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>266.89999999999998</v>
+        <v>197.17099999999999</v>
       </c>
       <c r="O27">
-        <v>375</v>
+        <v>403.82900000000001</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>289.40600000000001</v>
       </c>
       <c r="Q27">
-        <v>56.4</v>
+        <v>38.515000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3791.8</v>
+        <v>736.98599999999999</v>
       </c>
       <c r="U27">
-        <v>1406.9</v>
+        <v>152.447</v>
       </c>
       <c r="V27">
-        <v>228.7</v>
+        <v>25.882000000000001</v>
       </c>
       <c r="W27">
-        <v>-51.9</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-117.4</v>
+        <v>24.876000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
       <c r="AA27">
-        <v>224.9</v>
+        <v>12.196999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>246.2</v>
+        <v>11.423</v>
       </c>
       <c r="D28">
-        <v>900.8</v>
+        <v>175.05</v>
       </c>
       <c r="E28">
-        <v>397.4</v>
+        <v>164.34299999999999</v>
       </c>
       <c r="F28">
-        <v>453.6</v>
+        <v>68.632000000000005</v>
       </c>
       <c r="G28">
-        <v>2412</v>
+        <v>491.22300000000001</v>
       </c>
       <c r="H28">
-        <v>4310.2</v>
+        <v>1164.547</v>
       </c>
       <c r="I28">
-        <v>178.7</v>
+        <v>57.676000000000002</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>300.8</v>
+        <v>202.21100000000001</v>
       </c>
       <c r="O28">
-        <v>412.4</v>
+        <v>409.17</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>299.33499999999998</v>
       </c>
       <c r="Q28">
-        <v>37.1</v>
+        <v>0.748</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3897.8</v>
+        <v>755.37699999999995</v>
       </c>
       <c r="U28">
-        <v>1444</v>
+        <v>153.19499999999999</v>
       </c>
       <c r="V28">
-        <v>314.10000000000002</v>
+        <v>13.119</v>
       </c>
       <c r="W28">
-        <v>-51.6</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-164</v>
+        <v>11.467000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-10.85</v>
       </c>
       <c r="AA28">
-        <v>246.2</v>
+        <v>11.423</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>281.3</v>
+        <v>21.992999999999999</v>
       </c>
       <c r="D29">
-        <v>984.6</v>
+        <v>190.45400000000001</v>
       </c>
       <c r="E29">
-        <v>454.7</v>
+        <v>167.31899999999999</v>
       </c>
       <c r="F29">
-        <v>498.9</v>
+        <v>74.734999999999999</v>
       </c>
       <c r="G29">
-        <v>2633.7</v>
+        <v>513.71799999999996</v>
       </c>
       <c r="H29">
-        <v>4573.6000000000004</v>
+        <v>1189.9079999999999</v>
       </c>
       <c r="I29">
-        <v>258.39999999999998</v>
+        <v>56.417000000000002</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>387.9</v>
+        <v>197.22300000000001</v>
       </c>
       <c r="O29">
-        <v>507.9</v>
+        <v>403.56099999999998</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>299.33499999999998</v>
       </c>
       <c r="Q29">
-        <v>172.8</v>
+        <v>88.382000000000005</v>
       </c>
       <c r="R29">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="S29">
-        <v>8400</v>
+        <v>3300</v>
       </c>
       <c r="T29">
-        <v>4065.7</v>
+        <v>786.34699999999998</v>
       </c>
       <c r="U29">
-        <v>1616.8</v>
+        <v>241.577</v>
       </c>
       <c r="V29">
-        <v>417.6</v>
+        <v>30.016999999999999</v>
       </c>
       <c r="W29">
-        <v>-58.9</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-147.4</v>
+        <v>1.196</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="AA29">
-        <v>281.3</v>
+        <v>21.992999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43098</v>
+        <v>39444</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>70.400000000000006</v>
+        <v>19.077999999999999</v>
       </c>
       <c r="D30">
-        <v>1051.9000000000001</v>
+        <v>210.53299999999999</v>
       </c>
       <c r="E30">
-        <v>458.8</v>
+        <v>166.64699999999999</v>
       </c>
       <c r="F30">
-        <v>536.79999999999995</v>
+        <v>82.337999999999994</v>
       </c>
       <c r="G30">
-        <v>2686.6</v>
+        <v>469.33800000000002</v>
       </c>
       <c r="H30">
-        <v>4594.3</v>
+        <v>1177.7829999999999</v>
       </c>
       <c r="I30">
-        <v>161.6</v>
+        <v>69.227000000000004</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-49.335000000000001</v>
       </c>
       <c r="N30">
-        <v>321.5</v>
+        <v>159.376</v>
       </c>
       <c r="O30">
-        <v>693.8</v>
+        <v>366.68099999999998</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q30">
-        <v>64.7</v>
+        <v>-42.863</v>
       </c>
       <c r="R30">
-        <v>43098</v>
+        <v>39444</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3900.5</v>
+        <v>811.10199999999998</v>
       </c>
       <c r="U30">
-        <v>1681.5</v>
+        <v>198.714</v>
       </c>
       <c r="V30">
-        <v>360.8</v>
+        <v>55.494</v>
       </c>
       <c r="W30">
-        <v>-59.1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-261.89999999999998</v>
+        <v>-48.337000000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AA30">
-        <v>70.400000000000006</v>
+        <v>19.077999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43189</v>
+        <v>39535</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>276</v>
+        <v>16.672999999999998</v>
       </c>
       <c r="D31">
-        <v>913.4</v>
+        <v>201.708</v>
       </c>
       <c r="E31">
-        <v>367.2</v>
+        <v>164.60400000000001</v>
       </c>
       <c r="F31">
-        <v>458.7</v>
+        <v>80.367000000000004</v>
       </c>
       <c r="G31">
-        <v>2810.9</v>
+        <v>496.26100000000002</v>
       </c>
       <c r="H31">
-        <v>4745.1000000000004</v>
+        <v>1208.2909999999999</v>
       </c>
       <c r="I31">
-        <v>198.4</v>
+        <v>76.691000000000003</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,37 +3299,37 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>318.5</v>
+        <v>163.964</v>
       </c>
       <c r="O31">
-        <v>674.9</v>
+        <v>370.84300000000002</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q31">
-        <v>199.8</v>
+        <v>23.443000000000001</v>
       </c>
       <c r="R31">
-        <v>43189</v>
+        <v>39535</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4070.2</v>
+        <v>837.44799999999998</v>
       </c>
       <c r="U31">
-        <v>1881.3</v>
+        <v>222.15700000000001</v>
       </c>
       <c r="V31">
-        <v>434.2</v>
+        <v>40.378999999999998</v>
       </c>
       <c r="W31">
-        <v>-58.4</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-144.1</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>276</v>
+        <v>16.672999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43280</v>
+        <v>39626</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>286.5</v>
+        <v>20.466000000000001</v>
       </c>
       <c r="D32">
-        <v>894.3</v>
+        <v>215.21</v>
       </c>
       <c r="E32">
-        <v>468.4</v>
+        <v>169.28899999999999</v>
       </c>
       <c r="F32">
-        <v>451.6</v>
+        <v>86.433999999999997</v>
       </c>
       <c r="G32">
-        <v>2631.4</v>
+        <v>529.66700000000003</v>
       </c>
       <c r="H32">
-        <v>4783.3</v>
+        <v>1241.008</v>
       </c>
       <c r="I32">
-        <v>230.2</v>
+        <v>69.239000000000004</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>358.3</v>
+        <v>156.851</v>
       </c>
       <c r="O32">
-        <v>700.4</v>
+        <v>362.62400000000002</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q32">
-        <v>-723.2</v>
+        <v>25.858000000000001</v>
       </c>
       <c r="R32">
-        <v>43280</v>
+        <v>39626</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4082.9</v>
+        <v>878.38400000000001</v>
       </c>
       <c r="U32">
-        <v>1158.0999999999999</v>
+        <v>248.01499999999999</v>
       </c>
       <c r="V32">
-        <v>258</v>
+        <v>26.202000000000002</v>
       </c>
       <c r="W32">
-        <v>-57.7</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-296.5</v>
+        <v>14.086</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-490.6</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>286.5</v>
+        <v>20.466000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43371</v>
+        <v>39724</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>285.5</v>
+        <v>54.789000000000001</v>
       </c>
       <c r="D33">
-        <v>1008.4</v>
+        <v>232.566</v>
       </c>
       <c r="E33">
-        <v>655.8</v>
+        <v>146.71</v>
       </c>
       <c r="F33">
-        <v>503.6</v>
+        <v>93.823999999999998</v>
       </c>
       <c r="G33">
-        <v>2262.1999999999998</v>
+        <v>494.65600000000001</v>
       </c>
       <c r="H33">
-        <v>4828.8999999999996</v>
+        <v>1236.0989999999999</v>
       </c>
       <c r="I33">
-        <v>229.9</v>
+        <v>58.527000000000001</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>137.61600000000001</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>389.7</v>
+        <v>148.74</v>
       </c>
       <c r="O33">
-        <v>731.9</v>
+        <v>291.88299999999998</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>187.61600000000001</v>
       </c>
       <c r="Q33">
-        <v>-424.8</v>
+        <v>-22.911000000000001</v>
       </c>
       <c r="R33">
-        <v>43371</v>
+        <v>39724</v>
       </c>
       <c r="S33">
-        <v>9400</v>
+        <v>3300</v>
       </c>
       <c r="T33">
-        <v>4097</v>
+        <v>944.21600000000001</v>
       </c>
       <c r="U33">
-        <v>733.3</v>
+        <v>225.10400000000001</v>
       </c>
       <c r="V33">
-        <v>207.6</v>
+        <v>51.603000000000002</v>
       </c>
       <c r="W33">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-291.2</v>
+        <v>-61.527999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>175.1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>285.5</v>
+        <v>54.789000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43462</v>
+        <v>39815</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>284.89999999999998</v>
+        <v>23.585000000000001</v>
       </c>
       <c r="D34">
-        <v>972</v>
+        <v>210.22800000000001</v>
       </c>
       <c r="E34">
-        <v>524.4</v>
+        <v>108.871</v>
       </c>
       <c r="F34">
-        <v>485.1</v>
+        <v>83.867000000000004</v>
       </c>
       <c r="G34">
-        <v>2208.5</v>
+        <v>469.44499999999999</v>
       </c>
       <c r="H34">
-        <v>4738.8999999999996</v>
+        <v>1211.6890000000001</v>
       </c>
       <c r="I34">
-        <v>156.5</v>
+        <v>52.578000000000003</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>97.116</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-34.048000000000002</v>
       </c>
       <c r="N34">
-        <v>357.3</v>
+        <v>135.309</v>
       </c>
       <c r="O34">
-        <v>700.6</v>
+        <v>237.41900000000001</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>147.11600000000001</v>
       </c>
       <c r="Q34">
-        <v>352.4</v>
+        <v>18.591000000000001</v>
       </c>
       <c r="R34">
-        <v>43462</v>
+        <v>39815</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>4038.3</v>
+        <v>974.27</v>
       </c>
       <c r="U34">
-        <v>1085.7</v>
+        <v>243.69499999999999</v>
       </c>
       <c r="V34">
-        <v>549</v>
+        <v>77.734999999999999</v>
       </c>
       <c r="W34">
-        <v>-67.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-368.1</v>
+        <v>-44.944000000000003</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>284.89999999999998</v>
+        <v>23.585000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43553</v>
+        <v>39906</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>213.9</v>
+        <v>-5.6779999999999999</v>
       </c>
       <c r="D35">
-        <v>810.4</v>
+        <v>172.99</v>
       </c>
       <c r="E35">
-        <v>543.79999999999995</v>
+        <v>112.13</v>
       </c>
       <c r="F35">
-        <v>400.2</v>
+        <v>68.332999999999998</v>
       </c>
       <c r="G35">
-        <v>2160.1</v>
+        <v>486.63400000000001</v>
       </c>
       <c r="H35">
-        <v>4765.5</v>
+        <v>1214.3040000000001</v>
       </c>
       <c r="I35">
-        <v>167.9</v>
+        <v>48.097999999999999</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>47.116</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>338.3</v>
+        <v>183.29300000000001</v>
       </c>
       <c r="O35">
-        <v>684.6</v>
+        <v>235.374</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>147.11600000000001</v>
       </c>
       <c r="Q35">
-        <v>-269.39999999999998</v>
+        <v>18.256</v>
       </c>
       <c r="R35">
-        <v>43553</v>
+        <v>39906</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4080.9</v>
+        <v>978.93</v>
       </c>
       <c r="U35">
-        <v>816.3</v>
+        <v>261.95100000000002</v>
       </c>
       <c r="V35">
-        <v>192.1</v>
+        <v>21.939</v>
       </c>
       <c r="W35">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-193.4</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-158.5</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>214</v>
+        <v>-5.6779999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43644</v>
+        <v>39997</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>144.19999999999999</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="D36">
-        <v>767</v>
+        <v>191.21299999999999</v>
       </c>
       <c r="E36">
-        <v>557.79999999999995</v>
+        <v>112.462</v>
       </c>
       <c r="F36">
-        <v>379.1</v>
+        <v>76.95</v>
       </c>
       <c r="G36">
-        <v>2206.3000000000002</v>
+        <v>526.322</v>
       </c>
       <c r="H36">
-        <v>4842.3</v>
+        <v>1259.259</v>
       </c>
       <c r="I36">
-        <v>218.9</v>
+        <v>49.564999999999998</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>47.116</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>396.5</v>
+        <v>191.934</v>
       </c>
       <c r="O36">
-        <v>742.4</v>
+        <v>244.452</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>147.11600000000001</v>
       </c>
       <c r="Q36">
-        <v>-73.5</v>
+        <v>40.552999999999997</v>
       </c>
       <c r="R36">
-        <v>43644</v>
+        <v>39997</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4099.8999999999996</v>
+        <v>1014.807</v>
       </c>
       <c r="U36">
-        <v>742.8</v>
+        <v>302.50400000000002</v>
       </c>
       <c r="V36">
-        <v>209.3</v>
+        <v>43.591000000000001</v>
       </c>
       <c r="W36">
-        <v>-65.7</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-144.30000000000001</v>
+        <v>10.369</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-51.8</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>144.1</v>
+        <v>18.739999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43735</v>
+        <v>40088</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>210.6</v>
+        <v>58.335999999999999</v>
       </c>
       <c r="D37">
-        <v>827.4</v>
+        <v>228.14599999999999</v>
       </c>
       <c r="E37">
-        <v>465.3</v>
+        <v>115.03400000000001</v>
       </c>
       <c r="F37">
-        <v>405.5</v>
+        <v>92.528000000000006</v>
       </c>
       <c r="G37">
-        <v>2234.6</v>
+        <v>590.12699999999995</v>
       </c>
       <c r="H37">
-        <v>4839.6000000000004</v>
+        <v>1352.5909999999999</v>
       </c>
       <c r="I37">
-        <v>190.5</v>
+        <v>69.097999999999999</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>41.482999999999997</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>374</v>
+        <v>196.24299999999999</v>
       </c>
       <c r="O37">
-        <v>717.3</v>
+        <v>243.81200000000001</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>123.348</v>
       </c>
       <c r="Q37">
-        <v>108.5</v>
+        <v>61.716999999999999</v>
       </c>
       <c r="R37">
-        <v>43735</v>
+        <v>40088</v>
       </c>
       <c r="S37">
-        <v>9000</v>
+        <v>3300</v>
       </c>
       <c r="T37">
-        <v>4122.3</v>
+        <v>1108.779</v>
       </c>
       <c r="U37">
-        <v>851.3</v>
+        <v>364.221</v>
       </c>
       <c r="V37">
-        <v>417</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="W37">
-        <v>-75.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-206.7</v>
+        <v>2.3839999999999999</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>210.6</v>
+        <v>58.335999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43826</v>
+        <v>40179</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>257.10000000000002</v>
+        <v>28.01</v>
       </c>
       <c r="D38">
-        <v>896.1</v>
+        <v>245.13800000000001</v>
       </c>
       <c r="E38">
-        <v>426.8</v>
+        <v>119.22</v>
       </c>
       <c r="F38">
-        <v>444.3</v>
+        <v>102.554</v>
       </c>
       <c r="G38">
-        <v>2346.5</v>
+        <v>635.85299999999995</v>
       </c>
       <c r="H38">
-        <v>5091.8</v>
+        <v>1392.404</v>
       </c>
       <c r="I38">
-        <v>138.5</v>
+        <v>76.945999999999998</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>42.023000000000003</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-7.5739999999999998</v>
       </c>
       <c r="N38">
-        <v>333.2</v>
+        <v>196.79599999999999</v>
       </c>
       <c r="O38">
-        <v>824.5</v>
+        <v>245.50800000000001</v>
       </c>
       <c r="P38">
-        <v>160.19999999999999</v>
+        <v>119.383</v>
       </c>
       <c r="Q38">
-        <v>76.900000000000006</v>
+        <v>32.106000000000002</v>
       </c>
       <c r="R38">
-        <v>43826</v>
+        <v>40179</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>4267.3</v>
+        <v>1146.896</v>
       </c>
       <c r="U38">
-        <v>928.2</v>
+        <v>396.327</v>
       </c>
       <c r="V38">
-        <v>398.4</v>
+        <v>53.012</v>
       </c>
       <c r="W38">
-        <v>-75.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-141</v>
+        <v>-5.2270000000000003</v>
       </c>
       <c r="Y38">
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-69.3</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>257.10000000000002</v>
+        <v>28.01</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43917</v>
+        <v>40270</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>181</v>
+        <v>27.744</v>
       </c>
       <c r="D39">
-        <v>766.1</v>
+        <v>238.05799999999999</v>
       </c>
       <c r="E39">
-        <v>367.6</v>
+        <v>107.669</v>
       </c>
       <c r="F39">
-        <v>375.6</v>
+        <v>99.853999999999999</v>
       </c>
       <c r="G39">
-        <v>2220.8000000000002</v>
+        <v>644.01800000000003</v>
       </c>
       <c r="H39">
-        <v>4981.8999999999996</v>
+        <v>1403.4690000000001</v>
       </c>
       <c r="I39">
-        <v>169.5</v>
+        <v>76.596999999999994</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>42.573</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>362.2</v>
+        <v>170.21299999999999</v>
       </c>
       <c r="O39">
-        <v>839.1</v>
+        <v>220.423</v>
       </c>
       <c r="P39">
-        <v>172.6</v>
+        <v>92.572999999999993</v>
       </c>
       <c r="Q39">
-        <v>-15.8</v>
+        <v>9.0830000000000002</v>
       </c>
       <c r="R39">
-        <v>43917</v>
+        <v>40270</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4142.8</v>
+        <v>1183.046</v>
       </c>
       <c r="U39">
-        <v>912.4</v>
+        <v>405.41</v>
       </c>
       <c r="V39">
-        <v>280.39999999999998</v>
+        <v>60.164999999999999</v>
       </c>
       <c r="W39">
-        <v>-74.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-340.2</v>
+        <v>-31.501000000000001</v>
       </c>
       <c r="Y39">
-        <v>151.9</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>104.9</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>181.1</v>
+        <v>27.744</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44008</v>
+        <v>40361</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>129.80000000000001</v>
+        <v>34.735999999999997</v>
       </c>
       <c r="D40">
-        <v>736.8</v>
+        <v>275.37</v>
       </c>
       <c r="E40">
-        <v>346.1</v>
+        <v>154.78299999999999</v>
       </c>
       <c r="F40">
-        <v>357.5</v>
+        <v>118.26600000000001</v>
       </c>
       <c r="G40">
-        <v>2337.4</v>
+        <v>683.65800000000002</v>
       </c>
       <c r="H40">
-        <v>5072.3999999999996</v>
+        <v>1448.232</v>
       </c>
       <c r="I40">
-        <v>200.9</v>
+        <v>102.58799999999999</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>24.420999999999999</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>401.1</v>
+        <v>191.119</v>
       </c>
       <c r="O40">
-        <v>890</v>
+        <v>227.52600000000001</v>
       </c>
       <c r="P40">
-        <v>179.8</v>
+        <v>74.421000000000006</v>
       </c>
       <c r="Q40">
-        <v>-121.1</v>
+        <v>-21.585999999999999</v>
       </c>
       <c r="R40">
-        <v>44008</v>
+        <v>40361</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4182.3999999999996</v>
+        <v>1220.7059999999999</v>
       </c>
       <c r="U40">
-        <v>791.3</v>
+        <v>383.82400000000001</v>
       </c>
       <c r="V40">
-        <v>258.7</v>
+        <v>36.5</v>
       </c>
       <c r="W40">
-        <v>-73.5</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-125.3</v>
+        <v>-27.736999999999998</v>
       </c>
       <c r="Y40">
-        <v>155.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-175.5</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>129.69999999999999</v>
+        <v>34.735999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44106</v>
+        <v>40452</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>246.9</v>
+        <v>46.804000000000002</v>
       </c>
       <c r="D41">
-        <v>956.8</v>
+        <v>313.28300000000002</v>
       </c>
       <c r="E41">
-        <v>393.6</v>
+        <v>175.232</v>
       </c>
       <c r="F41">
-        <v>458.9</v>
+        <v>136.15899999999999</v>
       </c>
       <c r="G41">
-        <v>2317.6</v>
+        <v>789.86500000000001</v>
       </c>
       <c r="H41">
-        <v>5106.7</v>
+        <v>1564.0519999999999</v>
       </c>
       <c r="I41">
-        <v>226.9</v>
+        <v>111.967</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>24.742999999999999</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>448.4</v>
+        <v>204.32400000000001</v>
       </c>
       <c r="O41">
-        <v>942.5</v>
+        <v>247.45599999999999</v>
       </c>
       <c r="P41">
-        <v>178.9</v>
+        <v>74.742999999999995</v>
       </c>
       <c r="Q41">
-        <v>-224.6</v>
+        <v>69.433000000000007</v>
       </c>
       <c r="R41">
-        <v>44106</v>
+        <v>40452</v>
       </c>
       <c r="S41">
-        <v>10000</v>
+        <v>3700</v>
       </c>
       <c r="T41">
-        <v>4164.2</v>
+        <v>1316.596</v>
       </c>
       <c r="U41">
-        <v>566.70000000000005</v>
+        <v>453.25700000000001</v>
       </c>
       <c r="V41">
-        <v>267</v>
+        <v>73.284999999999997</v>
       </c>
       <c r="W41">
-        <v>-83.5</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-301.2</v>
+        <v>25.867999999999999</v>
       </c>
       <c r="Y41">
-        <v>150.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>246.9</v>
+        <v>46.804000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44197</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>60.868000000000002</v>
+      </c>
+      <c r="D42">
+        <v>335.12</v>
+      </c>
+      <c r="E42">
+        <v>200.905</v>
+      </c>
+      <c r="F42">
+        <v>148.53800000000001</v>
+      </c>
+      <c r="G42">
+        <v>820.60299999999995</v>
+      </c>
+      <c r="H42">
+        <v>1614.076</v>
+      </c>
+      <c r="I42">
+        <v>120.535</v>
+      </c>
+      <c r="J42">
+        <v>25.071000000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>-50</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>157.066</v>
+      </c>
+      <c r="O42">
+        <v>202.66900000000001</v>
+      </c>
+      <c r="P42">
+        <v>25.071000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>-3.2029999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1411.4069999999999</v>
+      </c>
+      <c r="U42">
+        <v>450.05399999999997</v>
+      </c>
+      <c r="V42">
+        <v>64.822000000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-31.055</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>60.868000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>49.96</v>
+      </c>
+      <c r="D43">
+        <v>325.411</v>
+      </c>
+      <c r="E43">
+        <v>183.352</v>
+      </c>
+      <c r="F43">
+        <v>140.98099999999999</v>
+      </c>
+      <c r="G43">
+        <v>872.44399999999996</v>
+      </c>
+      <c r="H43">
+        <v>1678.797</v>
+      </c>
+      <c r="I43">
+        <v>111.949</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>25.405000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>176.44399999999999</v>
+      </c>
+      <c r="O43">
+        <v>202.405</v>
+      </c>
+      <c r="P43">
+        <v>25.405000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>53.747</v>
+      </c>
+      <c r="R43">
+        <v>40634</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1476.3920000000001</v>
+      </c>
+      <c r="U43">
+        <v>503.80099999999999</v>
+      </c>
+      <c r="V43">
+        <v>92.222999999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-5.71</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>49.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>51.548000000000002</v>
+      </c>
+      <c r="D44">
+        <v>356.07499999999999</v>
+      </c>
+      <c r="E44">
+        <v>186.12899999999999</v>
+      </c>
+      <c r="F44">
+        <v>156.22499999999999</v>
+      </c>
+      <c r="G44">
+        <v>712.13300000000004</v>
+      </c>
+      <c r="H44">
+        <v>1805.5989999999999</v>
+      </c>
+      <c r="I44">
+        <v>116.648</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>244.34899999999999</v>
+      </c>
+      <c r="O44">
+        <v>273.42500000000001</v>
+      </c>
+      <c r="P44">
+        <v>25.744</v>
+      </c>
+      <c r="Q44">
+        <v>-194.15600000000001</v>
+      </c>
+      <c r="R44">
+        <v>40725</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1532.174</v>
+      </c>
+      <c r="U44">
+        <v>309.64499999999998</v>
+      </c>
+      <c r="V44">
+        <v>85.974000000000004</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-14.666</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>51.548000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>64.209000000000003</v>
+      </c>
+      <c r="D45">
+        <v>402.31599999999997</v>
+      </c>
+      <c r="E45">
+        <v>177.94</v>
+      </c>
+      <c r="F45">
+        <v>174.56</v>
+      </c>
+      <c r="G45">
+        <v>816.33399999999995</v>
+      </c>
+      <c r="H45">
+        <v>1890.3889999999999</v>
+      </c>
+      <c r="I45">
+        <v>115.29</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>247.096</v>
+      </c>
+      <c r="O45">
+        <v>281.29399999999998</v>
+      </c>
+      <c r="P45">
+        <v>26.088999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>100.44199999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>4400</v>
+      </c>
+      <c r="T45">
+        <v>1609.095</v>
+      </c>
+      <c r="U45">
+        <v>410.08699999999999</v>
+      </c>
+      <c r="V45">
+        <v>122.79900000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-7.6130000000000004</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>64.209000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40907</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>57.125999999999998</v>
+      </c>
+      <c r="D46">
+        <v>393.74</v>
+      </c>
+      <c r="E46">
+        <v>199.01</v>
+      </c>
+      <c r="F46">
+        <v>171.85</v>
+      </c>
+      <c r="G46">
+        <v>856.34199999999998</v>
+      </c>
+      <c r="H46">
+        <v>1914.633</v>
+      </c>
+      <c r="I46">
+        <v>96.03</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-14.926</v>
+      </c>
+      <c r="N46">
+        <v>212.50200000000001</v>
+      </c>
+      <c r="O46">
+        <v>250.96799999999999</v>
+      </c>
+      <c r="P46">
+        <v>17.123000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>35.548999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40907</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1663.665</v>
+      </c>
+      <c r="U46">
+        <v>445.63600000000002</v>
+      </c>
+      <c r="V46">
+        <v>77.231999999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-35.259</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>57.125999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>34.073999999999998</v>
+      </c>
+      <c r="D47">
+        <v>364.7</v>
+      </c>
+      <c r="E47">
+        <v>211.488</v>
+      </c>
+      <c r="F47">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="G47">
+        <v>752.33199999999999</v>
+      </c>
+      <c r="H47">
+        <v>2007.326</v>
+      </c>
+      <c r="I47">
+        <v>136.67699999999999</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>242.642</v>
+      </c>
+      <c r="O47">
+        <v>287.08199999999999</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-138.94900000000001</v>
+      </c>
+      <c r="R47">
+        <v>40998</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1720.2439999999999</v>
+      </c>
+      <c r="U47">
+        <v>306.47399999999999</v>
+      </c>
+      <c r="V47">
+        <v>116.968</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-21.440999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>20.9</v>
+      </c>
+      <c r="AA47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41089</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>49.3</v>
+      </c>
+      <c r="D48">
+        <v>389</v>
+      </c>
+      <c r="E48">
+        <v>246.89400000000001</v>
+      </c>
+      <c r="F48">
+        <v>165.3</v>
+      </c>
+      <c r="G48">
+        <v>829.49</v>
+      </c>
+      <c r="H48">
+        <v>2089.893</v>
+      </c>
+      <c r="I48">
+        <v>135.59700000000001</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>239.571</v>
+      </c>
+      <c r="O48">
+        <v>288.22800000000001</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>20.5</v>
+      </c>
+      <c r="R48">
+        <v>41089</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1801.665</v>
+      </c>
+      <c r="U48">
+        <v>327.09800000000001</v>
+      </c>
+      <c r="V48">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>11</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>61.5</v>
+      </c>
+      <c r="D49">
+        <v>421.1</v>
+      </c>
+      <c r="E49">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="F49">
+        <v>177.7</v>
+      </c>
+      <c r="G49">
+        <v>883.3</v>
+      </c>
+      <c r="H49">
+        <v>2136.6</v>
+      </c>
+      <c r="I49">
+        <v>140.6</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>182.7</v>
+      </c>
+      <c r="O49">
+        <v>231.1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-20.8</v>
+      </c>
+      <c r="R49">
+        <v>41180</v>
+      </c>
+      <c r="S49">
+        <v>4700</v>
+      </c>
+      <c r="T49">
+        <v>1905.5</v>
+      </c>
+      <c r="U49">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="V49">
+        <v>50.3</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-40.4</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41271</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>66.5</v>
+      </c>
+      <c r="D50">
+        <v>453.7</v>
+      </c>
+      <c r="E50">
+        <v>252.149</v>
+      </c>
+      <c r="F50">
+        <v>192.6</v>
+      </c>
+      <c r="G50">
+        <v>899.553</v>
+      </c>
+      <c r="H50">
+        <v>2151.107</v>
+      </c>
+      <c r="I50">
+        <v>111.36199999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>155.68799999999999</v>
+      </c>
+      <c r="O50">
+        <v>207.13800000000001</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>71.2</v>
+      </c>
+      <c r="R50">
+        <v>41271</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1943.9690000000001</v>
+      </c>
+      <c r="U50">
+        <v>377.53800000000001</v>
+      </c>
+      <c r="V50">
+        <v>147.6</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-50.8</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41362</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>61.7</v>
+      </c>
+      <c r="D51">
+        <v>425.2</v>
+      </c>
+      <c r="E51">
+        <v>234.6</v>
+      </c>
+      <c r="F51">
+        <v>176.7</v>
+      </c>
+      <c r="G51">
+        <v>963.7</v>
+      </c>
+      <c r="H51">
+        <v>2216.9</v>
+      </c>
+      <c r="I51">
+        <v>111.5</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>162.6</v>
+      </c>
+      <c r="O51">
+        <v>216.9</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>80.5</v>
+      </c>
+      <c r="R51">
+        <v>41362</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2000</v>
+      </c>
+      <c r="U51">
+        <v>458.8</v>
+      </c>
+      <c r="V51">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-24.2</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41453</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>65.7</v>
+      </c>
+      <c r="D52">
+        <v>436.1</v>
+      </c>
+      <c r="E52">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="F52">
+        <v>188.2</v>
+      </c>
+      <c r="G52">
+        <v>959.6</v>
+      </c>
+      <c r="H52">
+        <v>2217.9</v>
+      </c>
+      <c r="I52">
+        <v>115.2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>159</v>
+      </c>
+      <c r="O52">
+        <v>217.8</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-58.5</v>
+      </c>
+      <c r="R52">
+        <v>41453</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2000.1</v>
+      </c>
+      <c r="U52">
+        <v>400.3</v>
+      </c>
+      <c r="V52">
+        <v>64.3</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-89.4</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41544</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>84.2</v>
+      </c>
+      <c r="D53">
+        <v>477</v>
+      </c>
+      <c r="E53">
+        <v>292.7</v>
+      </c>
+      <c r="F53">
+        <v>209.1</v>
+      </c>
+      <c r="G53">
+        <v>1073.3</v>
+      </c>
+      <c r="H53">
+        <v>2333.1</v>
+      </c>
+      <c r="I53">
+        <v>126.5</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>179.7</v>
+      </c>
+      <c r="O53">
+        <v>232</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>110.8</v>
+      </c>
+      <c r="R53">
+        <v>41544</v>
+      </c>
+      <c r="S53">
+        <v>4750</v>
+      </c>
+      <c r="T53">
+        <v>2101.1</v>
+      </c>
+      <c r="U53">
+        <v>511.1</v>
+      </c>
+      <c r="V53">
+        <v>157.5</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>94.5</v>
+      </c>
+      <c r="D54">
+        <v>505.2</v>
+      </c>
+      <c r="E54">
+        <v>267.10000000000002</v>
+      </c>
+      <c r="F54">
+        <v>222</v>
+      </c>
+      <c r="G54">
+        <v>1180.0999999999999</v>
+      </c>
+      <c r="H54">
+        <v>2435.4</v>
+      </c>
+      <c r="I54">
+        <v>107.3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>165.8</v>
+      </c>
+      <c r="O54">
+        <v>223.2</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>137.5</v>
+      </c>
+      <c r="R54">
+        <v>41635</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2212.1999999999998</v>
+      </c>
+      <c r="U54">
+        <v>648.6</v>
+      </c>
+      <c r="V54">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-5</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D55">
+        <v>481</v>
+      </c>
+      <c r="E55">
+        <v>216.3</v>
+      </c>
+      <c r="F55">
+        <v>212.4</v>
+      </c>
+      <c r="G55">
+        <v>1268.9000000000001</v>
+      </c>
+      <c r="H55">
+        <v>2534.6</v>
+      </c>
+      <c r="I55">
+        <v>125.8</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>182.8</v>
+      </c>
+      <c r="O55">
+        <v>243.2</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41726</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2291.4</v>
+      </c>
+      <c r="U55">
+        <v>797.8</v>
+      </c>
+      <c r="V55">
+        <v>214.2</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-23.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41817</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>111.4</v>
+      </c>
+      <c r="D56">
+        <v>587</v>
+      </c>
+      <c r="E56">
+        <v>251.4</v>
+      </c>
+      <c r="F56">
+        <v>264.2</v>
+      </c>
+      <c r="G56">
+        <v>1387.3</v>
+      </c>
+      <c r="H56">
+        <v>2688.9</v>
+      </c>
+      <c r="I56">
+        <v>164</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>234.8</v>
+      </c>
+      <c r="O56">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>95.5</v>
+      </c>
+      <c r="R56">
+        <v>41817</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2389</v>
+      </c>
+      <c r="U56">
+        <v>893.3</v>
+      </c>
+      <c r="V56">
+        <v>199</v>
+      </c>
+      <c r="W56">
+        <v>-20.9</v>
+      </c>
+      <c r="X56">
+        <v>-36</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41915</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>174.9</v>
+      </c>
+      <c r="D57">
+        <v>718.3</v>
+      </c>
+      <c r="E57">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="F57">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="G57">
+        <v>1429.2</v>
+      </c>
+      <c r="H57">
+        <v>2973.8</v>
+      </c>
+      <c r="I57">
+        <v>200.6</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="O57">
+        <v>441.4</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>-87.5</v>
+      </c>
+      <c r="R57">
+        <v>41915</v>
+      </c>
+      <c r="S57">
+        <v>5550</v>
+      </c>
+      <c r="T57">
+        <v>2532.4</v>
+      </c>
+      <c r="U57">
+        <v>805.8</v>
+      </c>
+      <c r="V57">
+        <v>200.4</v>
+      </c>
+      <c r="W57">
+        <v>-20.5</v>
+      </c>
+      <c r="X57">
+        <v>-56.5</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>195.2</v>
+      </c>
+      <c r="D58">
+        <v>805.5</v>
+      </c>
+      <c r="E58">
+        <v>242.3</v>
+      </c>
+      <c r="F58">
+        <v>373</v>
+      </c>
+      <c r="G58">
+        <v>1590.4</v>
+      </c>
+      <c r="H58">
+        <v>3191</v>
+      </c>
+      <c r="I58">
+        <v>211</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>332.9</v>
+      </c>
+      <c r="O58">
+        <v>480.9</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>244.1</v>
+      </c>
+      <c r="R58">
+        <v>42006</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2710.1</v>
+      </c>
+      <c r="U58">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="V58">
+        <v>383.2</v>
+      </c>
+      <c r="W58">
+        <v>-24.6</v>
+      </c>
+      <c r="X58">
+        <v>-51.9</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>195.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42097</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>166.5</v>
+      </c>
+      <c r="D59">
+        <v>762.1</v>
+      </c>
+      <c r="E59">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="F59">
+        <v>352.2</v>
+      </c>
+      <c r="G59">
+        <v>1678.9</v>
+      </c>
+      <c r="H59">
+        <v>3313.2</v>
+      </c>
+      <c r="I59">
+        <v>231</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="O59">
+        <v>449.7</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>4.3</v>
+      </c>
+      <c r="R59">
+        <v>42097</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2863.5</v>
+      </c>
+      <c r="U59">
+        <v>1054.2</v>
+      </c>
+      <c r="V59">
+        <v>155</v>
+      </c>
+      <c r="W59">
+        <v>-24.7</v>
+      </c>
+      <c r="X59">
+        <v>-48.6</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>207.4</v>
+      </c>
+      <c r="D60">
+        <v>810</v>
+      </c>
+      <c r="E60">
+        <v>381.7</v>
+      </c>
+      <c r="F60">
+        <v>393.1</v>
+      </c>
+      <c r="G60">
+        <v>1818.1</v>
+      </c>
+      <c r="H60">
+        <v>3518.3</v>
+      </c>
+      <c r="I60">
+        <v>228.2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>319</v>
+      </c>
+      <c r="O60">
+        <v>476.3</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>51.8</v>
+      </c>
+      <c r="R60">
+        <v>42188</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3042</v>
+      </c>
+      <c r="U60">
+        <v>1106</v>
+      </c>
+      <c r="V60">
+        <v>221.9</v>
+      </c>
+      <c r="W60">
+        <v>-24.5</v>
+      </c>
+      <c r="X60">
+        <v>-55.9</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>207.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>229.2</v>
+      </c>
+      <c r="D61">
+        <v>880.8</v>
+      </c>
+      <c r="E61">
+        <v>538</v>
+      </c>
+      <c r="F61">
+        <v>436.2</v>
+      </c>
+      <c r="G61">
+        <v>1914.7</v>
+      </c>
+      <c r="H61">
+        <v>3719.4</v>
+      </c>
+      <c r="I61">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>463.9</v>
+      </c>
+      <c r="O61">
+        <v>560.20000000000005</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-62.4</v>
+      </c>
+      <c r="R61">
+        <v>42279</v>
+      </c>
+      <c r="S61">
+        <v>6700</v>
+      </c>
+      <c r="T61">
+        <v>3159.2</v>
+      </c>
+      <c r="U61">
+        <v>1043.5999999999999</v>
+      </c>
+      <c r="V61">
+        <v>232.7</v>
+      </c>
+      <c r="W61">
+        <v>-49.3</v>
+      </c>
+      <c r="X61">
+        <v>-143.9</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>229.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>355.3</v>
+      </c>
+      <c r="D62">
+        <v>926.8</v>
+      </c>
+      <c r="E62">
+        <v>527.6</v>
+      </c>
+      <c r="F62">
+        <v>472.1</v>
+      </c>
+      <c r="G62">
+        <v>2114.6999999999998</v>
+      </c>
+      <c r="H62">
+        <v>3930.5</v>
+      </c>
+      <c r="I62">
+        <v>191.8</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>367.9</v>
+      </c>
+      <c r="O62">
+        <v>447.9</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>189.6</v>
+      </c>
+      <c r="R62">
+        <v>42370</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>3482.6</v>
+      </c>
+      <c r="U62">
+        <v>1233.2</v>
+      </c>
+      <c r="V62">
+        <v>345.3</v>
+      </c>
+      <c r="W62">
+        <v>-50.2</v>
+      </c>
+      <c r="X62">
+        <v>-76.2</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>355.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>208.1</v>
+      </c>
+      <c r="D63">
+        <v>775.1</v>
+      </c>
+      <c r="E63">
+        <v>538.5</v>
+      </c>
+      <c r="F63">
+        <v>390.4</v>
+      </c>
+      <c r="G63">
+        <v>2127</v>
+      </c>
+      <c r="H63">
+        <v>3958.2</v>
+      </c>
+      <c r="I63">
+        <v>180.7</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>324.7</v>
+      </c>
+      <c r="O63">
+        <v>414.9</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-55.7</v>
+      </c>
+      <c r="R63">
+        <v>42461</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3543.3</v>
+      </c>
+      <c r="U63">
+        <v>1177.5</v>
+      </c>
+      <c r="V63">
+        <v>154.5</v>
+      </c>
+      <c r="W63">
+        <v>-49.2</v>
+      </c>
+      <c r="X63">
+        <v>-172.8</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>208.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>185</v>
+      </c>
+      <c r="D64">
+        <v>751.7</v>
+      </c>
+      <c r="E64">
+        <v>570</v>
+      </c>
+      <c r="F64">
+        <v>378.3</v>
+      </c>
+      <c r="G64">
+        <v>2078.1</v>
+      </c>
+      <c r="H64">
+        <v>3955.7</v>
+      </c>
+      <c r="I64">
+        <v>181.7</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>347</v>
+      </c>
+      <c r="O64">
+        <v>441.4</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-203.8</v>
+      </c>
+      <c r="R64">
+        <v>42552</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3514.3</v>
+      </c>
+      <c r="U64">
+        <v>973.7</v>
+      </c>
+      <c r="V64">
+        <v>140.9</v>
+      </c>
+      <c r="W64">
+        <v>-49.4</v>
+      </c>
+      <c r="X64">
+        <v>-232.5</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>246.8</v>
+      </c>
+      <c r="D65">
+        <v>835.4</v>
+      </c>
+      <c r="E65">
+        <v>416.6</v>
+      </c>
+      <c r="F65">
+        <v>424.4</v>
+      </c>
+      <c r="G65">
+        <v>2002.1</v>
+      </c>
+      <c r="H65">
+        <v>3855.4</v>
+      </c>
+      <c r="I65">
+        <v>110.4</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>210.2</v>
+      </c>
+      <c r="O65">
+        <v>314</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>110.1</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>7300</v>
+      </c>
+      <c r="T65">
+        <v>3541.4</v>
+      </c>
+      <c r="U65">
+        <v>1083.8</v>
+      </c>
+      <c r="V65">
+        <v>455</v>
+      </c>
+      <c r="W65">
+        <v>-52.2</v>
+      </c>
+      <c r="X65">
+        <v>-323.10000000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>246.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42734</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>257.8</v>
+      </c>
+      <c r="D66">
+        <v>914.3</v>
+      </c>
+      <c r="E66">
+        <v>368.4</v>
+      </c>
+      <c r="F66">
+        <v>463.9</v>
+      </c>
+      <c r="G66">
+        <v>2198.5</v>
+      </c>
+      <c r="H66">
+        <v>4065.7</v>
+      </c>
+      <c r="I66">
+        <v>161.5</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="O66">
+        <v>405.4</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>266.7</v>
+      </c>
+      <c r="R66">
+        <v>42734</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3660.3</v>
+      </c>
+      <c r="U66">
+        <v>1350.5</v>
+      </c>
+      <c r="V66">
+        <v>495.9</v>
+      </c>
+      <c r="W66">
+        <v>-52.2</v>
+      </c>
+      <c r="X66">
+        <v>-168.6</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>3.2</v>
+      </c>
+      <c r="AA66">
+        <v>257.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>224.9</v>
+      </c>
+      <c r="D67">
+        <v>851.7</v>
+      </c>
+      <c r="E67">
+        <v>368.8</v>
+      </c>
+      <c r="F67">
+        <v>425.4</v>
+      </c>
+      <c r="G67">
+        <v>2308.1</v>
+      </c>
+      <c r="H67">
+        <v>4166.8</v>
+      </c>
+      <c r="I67">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="O67">
+        <v>375</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>56.4</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3791.8</v>
+      </c>
+      <c r="U67">
+        <v>1406.9</v>
+      </c>
+      <c r="V67">
+        <v>228.7</v>
+      </c>
+      <c r="W67">
+        <v>-51.9</v>
+      </c>
+      <c r="X67">
+        <v>-117.4</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>224.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>246.2</v>
+      </c>
+      <c r="D68">
+        <v>900.8</v>
+      </c>
+      <c r="E68">
+        <v>397.4</v>
+      </c>
+      <c r="F68">
+        <v>453.6</v>
+      </c>
+      <c r="G68">
+        <v>2412</v>
+      </c>
+      <c r="H68">
+        <v>4310.2</v>
+      </c>
+      <c r="I68">
+        <v>178.7</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>300.8</v>
+      </c>
+      <c r="O68">
+        <v>412.4</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>37.1</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3897.8</v>
+      </c>
+      <c r="U68">
+        <v>1444</v>
+      </c>
+      <c r="V68">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="W68">
+        <v>-51.6</v>
+      </c>
+      <c r="X68">
+        <v>-164</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>246.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>281.3</v>
+      </c>
+      <c r="D69">
+        <v>984.6</v>
+      </c>
+      <c r="E69">
+        <v>454.7</v>
+      </c>
+      <c r="F69">
+        <v>498.9</v>
+      </c>
+      <c r="G69">
+        <v>2633.7</v>
+      </c>
+      <c r="H69">
+        <v>4573.6000000000004</v>
+      </c>
+      <c r="I69">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>387.9</v>
+      </c>
+      <c r="O69">
+        <v>507.9</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>172.8</v>
+      </c>
+      <c r="R69">
+        <v>43007</v>
+      </c>
+      <c r="S69">
+        <v>8400</v>
+      </c>
+      <c r="T69">
+        <v>4065.7</v>
+      </c>
+      <c r="U69">
+        <v>1616.8</v>
+      </c>
+      <c r="V69">
+        <v>417.6</v>
+      </c>
+      <c r="W69">
+        <v>-58.9</v>
+      </c>
+      <c r="X69">
+        <v>-147.4</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>281.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43098</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D70">
+        <v>1051.9000000000001</v>
+      </c>
+      <c r="E70">
+        <v>458.8</v>
+      </c>
+      <c r="F70">
+        <v>536.79999999999995</v>
+      </c>
+      <c r="G70">
+        <v>2686.6</v>
+      </c>
+      <c r="H70">
+        <v>4594.3</v>
+      </c>
+      <c r="I70">
+        <v>161.6</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>321.5</v>
+      </c>
+      <c r="O70">
+        <v>693.8</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>64.7</v>
+      </c>
+      <c r="R70">
+        <v>43098</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3900.5</v>
+      </c>
+      <c r="U70">
+        <v>1681.5</v>
+      </c>
+      <c r="V70">
+        <v>360.8</v>
+      </c>
+      <c r="W70">
+        <v>-59.1</v>
+      </c>
+      <c r="X70">
+        <v>-261.89999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>276</v>
+      </c>
+      <c r="D71">
+        <v>913.4</v>
+      </c>
+      <c r="E71">
+        <v>367.2</v>
+      </c>
+      <c r="F71">
+        <v>458.7</v>
+      </c>
+      <c r="G71">
+        <v>2810.9</v>
+      </c>
+      <c r="H71">
+        <v>4745.1000000000004</v>
+      </c>
+      <c r="I71">
+        <v>198.4</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>318.5</v>
+      </c>
+      <c r="O71">
+        <v>674.9</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>199.8</v>
+      </c>
+      <c r="R71">
+        <v>43189</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4070.2</v>
+      </c>
+      <c r="U71">
+        <v>1881.3</v>
+      </c>
+      <c r="V71">
+        <v>434.2</v>
+      </c>
+      <c r="W71">
+        <v>-58.4</v>
+      </c>
+      <c r="X71">
+        <v>-144.1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>286.5</v>
+      </c>
+      <c r="D72">
+        <v>894.3</v>
+      </c>
+      <c r="E72">
+        <v>468.4</v>
+      </c>
+      <c r="F72">
+        <v>451.6</v>
+      </c>
+      <c r="G72">
+        <v>2631.4</v>
+      </c>
+      <c r="H72">
+        <v>4783.3</v>
+      </c>
+      <c r="I72">
+        <v>230.2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>358.3</v>
+      </c>
+      <c r="O72">
+        <v>700.4</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>-723.2</v>
+      </c>
+      <c r="R72">
+        <v>43280</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4082.9</v>
+      </c>
+      <c r="U72">
+        <v>1158.0999999999999</v>
+      </c>
+      <c r="V72">
+        <v>258</v>
+      </c>
+      <c r="W72">
+        <v>-57.7</v>
+      </c>
+      <c r="X72">
+        <v>-296.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-490.6</v>
+      </c>
+      <c r="AA72">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>285.5</v>
+      </c>
+      <c r="D73">
+        <v>1008.4</v>
+      </c>
+      <c r="E73">
+        <v>655.8</v>
+      </c>
+      <c r="F73">
+        <v>503.6</v>
+      </c>
+      <c r="G73">
+        <v>2262.1999999999998</v>
+      </c>
+      <c r="H73">
+        <v>4828.8999999999996</v>
+      </c>
+      <c r="I73">
+        <v>229.9</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>389.7</v>
+      </c>
+      <c r="O73">
+        <v>731.9</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>-424.8</v>
+      </c>
+      <c r="R73">
+        <v>43371</v>
+      </c>
+      <c r="S73">
+        <v>9400</v>
+      </c>
+      <c r="T73">
+        <v>4097</v>
+      </c>
+      <c r="U73">
+        <v>733.3</v>
+      </c>
+      <c r="V73">
+        <v>207.6</v>
+      </c>
+      <c r="W73">
+        <v>-68</v>
+      </c>
+      <c r="X73">
+        <v>-291.2</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>175.1</v>
+      </c>
+      <c r="AA73">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43462</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="D74">
+        <v>972</v>
+      </c>
+      <c r="E74">
+        <v>524.4</v>
+      </c>
+      <c r="F74">
+        <v>485.1</v>
+      </c>
+      <c r="G74">
+        <v>2208.5</v>
+      </c>
+      <c r="H74">
+        <v>4738.8999999999996</v>
+      </c>
+      <c r="I74">
+        <v>156.5</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>357.3</v>
+      </c>
+      <c r="O74">
+        <v>700.6</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>352.4</v>
+      </c>
+      <c r="R74">
+        <v>43462</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>4038.3</v>
+      </c>
+      <c r="U74">
+        <v>1085.7</v>
+      </c>
+      <c r="V74">
+        <v>549</v>
+      </c>
+      <c r="W74">
+        <v>-67.099999999999994</v>
+      </c>
+      <c r="X74">
+        <v>-368.1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>301</v>
+      </c>
+      <c r="AA74">
+        <v>284.89999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>213.9</v>
+      </c>
+      <c r="D75">
+        <v>810.4</v>
+      </c>
+      <c r="E75">
+        <v>543.79999999999995</v>
+      </c>
+      <c r="F75">
+        <v>400.2</v>
+      </c>
+      <c r="G75">
+        <v>2160.1</v>
+      </c>
+      <c r="H75">
+        <v>4765.5</v>
+      </c>
+      <c r="I75">
+        <v>167.9</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>338.3</v>
+      </c>
+      <c r="O75">
+        <v>684.6</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>-269.39999999999998</v>
+      </c>
+      <c r="R75">
+        <v>43553</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4080.9</v>
+      </c>
+      <c r="U75">
+        <v>816.3</v>
+      </c>
+      <c r="V75">
+        <v>192.1</v>
+      </c>
+      <c r="W75">
+        <v>-66</v>
+      </c>
+      <c r="X75">
+        <v>-193.4</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-158.5</v>
+      </c>
+      <c r="AA75">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="D76">
+        <v>767</v>
+      </c>
+      <c r="E76">
+        <v>557.79999999999995</v>
+      </c>
+      <c r="F76">
+        <v>379.1</v>
+      </c>
+      <c r="G76">
+        <v>2206.3000000000002</v>
+      </c>
+      <c r="H76">
+        <v>4842.3</v>
+      </c>
+      <c r="I76">
+        <v>218.9</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>396.5</v>
+      </c>
+      <c r="O76">
+        <v>742.4</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>-73.5</v>
+      </c>
+      <c r="R76">
+        <v>43644</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4099.8999999999996</v>
+      </c>
+      <c r="U76">
+        <v>742.8</v>
+      </c>
+      <c r="V76">
+        <v>209.3</v>
+      </c>
+      <c r="W76">
+        <v>-65.7</v>
+      </c>
+      <c r="X76">
+        <v>-144.30000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-51.8</v>
+      </c>
+      <c r="AA76">
+        <v>144.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>210.6</v>
+      </c>
+      <c r="D77">
+        <v>827.4</v>
+      </c>
+      <c r="E77">
+        <v>465.3</v>
+      </c>
+      <c r="F77">
+        <v>405.5</v>
+      </c>
+      <c r="G77">
+        <v>2234.6</v>
+      </c>
+      <c r="H77">
+        <v>4839.6000000000004</v>
+      </c>
+      <c r="I77">
+        <v>190.5</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>374</v>
+      </c>
+      <c r="O77">
+        <v>717.3</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>108.5</v>
+      </c>
+      <c r="R77">
+        <v>43735</v>
+      </c>
+      <c r="S77">
+        <v>9000</v>
+      </c>
+      <c r="T77">
+        <v>4122.3</v>
+      </c>
+      <c r="U77">
+        <v>851.3</v>
+      </c>
+      <c r="V77">
+        <v>417</v>
+      </c>
+      <c r="W77">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="X77">
+        <v>-206.7</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-4.2</v>
+      </c>
+      <c r="AA77">
+        <v>210.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="D78">
+        <v>896.1</v>
+      </c>
+      <c r="E78">
+        <v>426.8</v>
+      </c>
+      <c r="F78">
+        <v>444.3</v>
+      </c>
+      <c r="G78">
+        <v>2346.5</v>
+      </c>
+      <c r="H78">
+        <v>5091.8</v>
+      </c>
+      <c r="I78">
+        <v>138.5</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>333.2</v>
+      </c>
+      <c r="O78">
+        <v>824.5</v>
+      </c>
+      <c r="P78">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="Q78">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="R78">
+        <v>43826</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>4267.3</v>
+      </c>
+      <c r="U78">
+        <v>928.2</v>
+      </c>
+      <c r="V78">
+        <v>398.4</v>
+      </c>
+      <c r="W78">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="X78">
+        <v>-141</v>
+      </c>
+      <c r="Y78">
+        <v>150.9</v>
+      </c>
+      <c r="Z78">
+        <v>-69.3</v>
+      </c>
+      <c r="AA78">
+        <v>257.10000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>181</v>
+      </c>
+      <c r="D79">
+        <v>766.1</v>
+      </c>
+      <c r="E79">
+        <v>367.6</v>
+      </c>
+      <c r="F79">
+        <v>375.6</v>
+      </c>
+      <c r="G79">
+        <v>2220.8000000000002</v>
+      </c>
+      <c r="H79">
+        <v>4981.8999999999996</v>
+      </c>
+      <c r="I79">
+        <v>169.5</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>362.2</v>
+      </c>
+      <c r="O79">
+        <v>839.1</v>
+      </c>
+      <c r="P79">
+        <v>172.6</v>
+      </c>
+      <c r="Q79">
+        <v>-15.8</v>
+      </c>
+      <c r="R79">
+        <v>43917</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4142.8</v>
+      </c>
+      <c r="U79">
+        <v>912.4</v>
+      </c>
+      <c r="V79">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="W79">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="X79">
+        <v>-340.2</v>
+      </c>
+      <c r="Y79">
+        <v>151.9</v>
+      </c>
+      <c r="Z79">
+        <v>104.9</v>
+      </c>
+      <c r="AA79">
+        <v>181.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="D80">
+        <v>736.8</v>
+      </c>
+      <c r="E80">
+        <v>346.1</v>
+      </c>
+      <c r="F80">
+        <v>357.5</v>
+      </c>
+      <c r="G80">
+        <v>2337.4</v>
+      </c>
+      <c r="H80">
+        <v>5072.3999999999996</v>
+      </c>
+      <c r="I80">
+        <v>200.9</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>401.1</v>
+      </c>
+      <c r="O80">
+        <v>890</v>
+      </c>
+      <c r="P80">
+        <v>179.8</v>
+      </c>
+      <c r="Q80">
+        <v>-121.1</v>
+      </c>
+      <c r="R80">
+        <v>44008</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4182.3999999999996</v>
+      </c>
+      <c r="U80">
+        <v>791.3</v>
+      </c>
+      <c r="V80">
+        <v>258.7</v>
+      </c>
+      <c r="W80">
+        <v>-73.5</v>
+      </c>
+      <c r="X80">
+        <v>-125.3</v>
+      </c>
+      <c r="Y80">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="Z80">
+        <v>-175.5</v>
+      </c>
+      <c r="AA80">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>246.9</v>
+      </c>
+      <c r="D81">
+        <v>956.8</v>
+      </c>
+      <c r="E81">
+        <v>393.6</v>
+      </c>
+      <c r="F81">
+        <v>458.9</v>
+      </c>
+      <c r="G81">
+        <v>2317.6</v>
+      </c>
+      <c r="H81">
+        <v>5106.7</v>
+      </c>
+      <c r="I81">
+        <v>226.9</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>448.4</v>
+      </c>
+      <c r="O81">
+        <v>942.5</v>
+      </c>
+      <c r="P81">
+        <v>178.9</v>
+      </c>
+      <c r="Q81">
+        <v>-224.6</v>
+      </c>
+      <c r="R81">
+        <v>44106</v>
+      </c>
+      <c r="S81">
+        <v>10000</v>
+      </c>
+      <c r="T81">
+        <v>4164.2</v>
+      </c>
+      <c r="U81">
+        <v>566.70000000000005</v>
+      </c>
+      <c r="V81">
+        <v>267</v>
+      </c>
+      <c r="W81">
+        <v>-83.5</v>
+      </c>
+      <c r="X81">
+        <v>-301.2</v>
+      </c>
+      <c r="Y81">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="Z81">
+        <v>-43</v>
+      </c>
+      <c r="AA81">
+        <v>246.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>509.3</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1510</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>689.9</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>761.7</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2575.1999999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>5419.8</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>264.60000000000002</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>507.6</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1004.9</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>185.7</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>50.5</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44197</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>4414.8999999999996</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>617.20000000000005</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>485.1</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-83</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-323.60000000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>154.9</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>12.2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>509.3</v>
       </c>
     </row>
